--- a/SCBAA/2019/CAR.xlsx
+++ b/SCBAA/2019/CAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FA4B2-04C4-4162-9C2E-1C123B679D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4062EB9B-0054-485C-B325-1D254F258ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="660" windowWidth="14880" windowHeight="12495" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabuk" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2041,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D009F0B-2513-4C85-9C91-3D91A01086B0}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2206,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>634535019.7299999</v>
       </c>
     </row>
@@ -2253,7 +2259,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>414527607.53000009</v>
       </c>
     </row>
@@ -2444,7 +2449,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2076738756.04</v>
       </c>
     </row>
@@ -3021,7 +3025,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1296299530.1100001</v>
       </c>
     </row>
@@ -3188,7 +3191,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="34">
-        <f>131511231.32+29502701.67+1603963.18</f>
         <v>162617896.17000002</v>
       </c>
     </row>
@@ -3197,7 +3199,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>164062739.17000002</v>
       </c>
     </row>
@@ -3209,7 +3210,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1460362269.2800002</v>
       </c>
     </row>
